--- a/data/trans_dic/P16A12-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Clase-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1665,7 +1665,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A12-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03637924410182619</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.03068927876694538</v>
+        <v>0.03068927876694537</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03557161003394161</v>
@@ -697,7 +697,7 @@
         <v>0.05604923426147752</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05497416264209613</v>
+        <v>0.05497416264209612</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03208875694993311</v>
+        <v>0.03235681079705916</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02665031318545848</v>
+        <v>0.0257428875561344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04876624645435004</v>
+        <v>0.04945430987336021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05851671963136472</v>
+        <v>0.05875417489068306</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00584448973211481</v>
+        <v>0.00578107835311185</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01964205497506074</v>
+        <v>0.01984549213407008</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01910301441215438</v>
+        <v>0.01802040240130289</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02135707308415513</v>
+        <v>0.02045398746584986</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02373959358276388</v>
+        <v>0.02394747929827402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02805073719019336</v>
+        <v>0.02816722193279351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03924714848464354</v>
+        <v>0.04098235605687438</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04374371179180814</v>
+        <v>0.04326477154383975</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06969428913126835</v>
+        <v>0.06997934350944038</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07323964755571995</v>
+        <v>0.06806577579634006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.102325156899854</v>
+        <v>0.1012724549764505</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09967617569302631</v>
+        <v>0.09927631063086344</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03531334859520561</v>
+        <v>0.03582152884934617</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06759810255460266</v>
+        <v>0.06496058277396755</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06125714146663784</v>
+        <v>0.05933375493230067</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04498819866580329</v>
+        <v>0.04343034546396986</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05178600653687282</v>
+        <v>0.05024406859665156</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05948427762335303</v>
+        <v>0.05752549881742989</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07499173924460727</v>
+        <v>0.07466948920449866</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06891842719538731</v>
+        <v>0.06722069951092341</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.06138169863970587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08894760409618786</v>
+        <v>0.08894760409618784</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01478436606281068</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02681569864109315</v>
+        <v>0.02674634474310459</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03337978455977824</v>
+        <v>0.03269253683852712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04177636392269843</v>
+        <v>0.04181529830262989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06750817705793388</v>
+        <v>0.06662297411382898</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005430055344988687</v>
+        <v>0.003140496301211121</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01243056394508294</v>
+        <v>0.01142908909172873</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01203294054352132</v>
+        <v>0.01189319600781567</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0157294557193357</v>
+        <v>0.01632213159683161</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01902611271437416</v>
+        <v>0.01905960432496791</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02813388692511153</v>
+        <v>0.0283325401939792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02982738838760065</v>
+        <v>0.03122496323959619</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04726774930692681</v>
+        <v>0.04693324160983976</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06661234454657458</v>
+        <v>0.06900537456026222</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07889564584325963</v>
+        <v>0.07887318039582709</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09103239629142394</v>
+        <v>0.0916612196399562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.115568263095783</v>
+        <v>0.1177084940156497</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03383178076384104</v>
+        <v>0.03028684730011841</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0540877250365288</v>
+        <v>0.05170689265360504</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05682111266234845</v>
+        <v>0.05287712962580677</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03946525383832537</v>
+        <v>0.03799729288430962</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04505925082301074</v>
+        <v>0.04449145162359056</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06112623368061326</v>
+        <v>0.05847754728573278</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06142295945259754</v>
+        <v>0.06101377450269659</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07414443060194055</v>
+        <v>0.0742964556688175</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.06479272811926917</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09801039994139217</v>
+        <v>0.09801039994139216</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05787050535001943</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03700956744728864</v>
+        <v>0.03673918700026563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07891466453070733</v>
+        <v>0.08003275572747394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07627811781882372</v>
+        <v>0.07736224804223774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07878041406963154</v>
+        <v>0.0801354917300892</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04164186908090529</v>
+        <v>0.04276454255906594</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03505913293033008</v>
+        <v>0.03477924601569904</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03266912866041614</v>
+        <v>0.03488629305742694</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06720737673382013</v>
+        <v>0.06730579509486544</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04241902928959968</v>
+        <v>0.04301354142328007</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07236664093751938</v>
+        <v>0.07433342646552248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07185652976355743</v>
+        <v>0.06816825571582437</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08477032751414788</v>
+        <v>0.08264339025287819</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07412032208410188</v>
+        <v>0.07201377468125054</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1340213598948687</v>
+        <v>0.1319158886793804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1285068953690486</v>
+        <v>0.1308151918532256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1353044923852464</v>
+        <v>0.1321706736537138</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1289141501388958</v>
+        <v>0.120859723071481</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1006304404413678</v>
+        <v>0.09876601804880063</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1219151213544735</v>
+        <v>0.1186663324273988</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1343359359080936</v>
+        <v>0.133705473670205</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07632253176895104</v>
+        <v>0.0779258225760399</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1160075313114526</v>
+        <v>0.1141436775778165</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1166858500032843</v>
+        <v>0.11318425080898</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1240496598164254</v>
+        <v>0.1231456782915283</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.06958610692018684</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08353741886839447</v>
+        <v>0.08353741886839448</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06139181889645291</v>
+        <v>0.0599743754984937</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07422148449752754</v>
+        <v>0.07317199575027228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07730545382083616</v>
+        <v>0.07670806872422811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09032596965849161</v>
+        <v>0.09255591647743265</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02989262522330454</v>
+        <v>0.02895923290130291</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03629608660136472</v>
+        <v>0.0381253063207522</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02597989156871984</v>
+        <v>0.02492165196605913</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04189129115444897</v>
+        <v>0.04267233300138828</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05275581405787919</v>
+        <v>0.05261374108469016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06272434574146468</v>
+        <v>0.06325412808400421</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05929155634874399</v>
+        <v>0.05865803348503581</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07373818937171102</v>
+        <v>0.07271974806559491</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09072154361258566</v>
+        <v>0.08950542427034822</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1077248268847853</v>
+        <v>0.1082121114659362</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1109458150549635</v>
+        <v>0.1103996265138678</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1247755464968468</v>
+        <v>0.1250903469899701</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05986034957340817</v>
+        <v>0.05956733574736618</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06812367003102188</v>
+        <v>0.07013373105294458</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05246616860115517</v>
+        <v>0.05206982462655266</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0642681896860763</v>
+        <v>0.06410420978137997</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07328970361535737</v>
+        <v>0.07421147400901412</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08749139887830064</v>
+        <v>0.08723088862687105</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08166146663422873</v>
+        <v>0.08329067120143997</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09432694603043881</v>
+        <v>0.09470400037238036</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.107165232319861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0816590407616601</v>
+        <v>0.08165904076166007</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05169906206199418</v>
@@ -1241,7 +1241,7 @@
         <v>0.0989745013067497</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0985470863231355</v>
+        <v>0.09854708632313548</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04010646473107665</v>
+        <v>0.04139368540262954</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04650035626507133</v>
+        <v>0.04577346664108277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0859033205134434</v>
+        <v>0.08561105460362629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06149185153099899</v>
+        <v>0.0623645769698413</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03465886192198298</v>
+        <v>0.03551228666091099</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06960582033140977</v>
+        <v>0.06994229616111292</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07220887369651582</v>
+        <v>0.07219710741538951</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09493537719311998</v>
+        <v>0.09507122214114498</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0408779035720188</v>
+        <v>0.043090917968008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06746354776318206</v>
+        <v>0.06625632871009253</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08417066652098212</v>
+        <v>0.0824058485314787</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08508434337310146</v>
+        <v>0.08569814944847115</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09307457116664691</v>
+        <v>0.09117697152639702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09695990757696327</v>
+        <v>0.09192929916483832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.134756484428734</v>
+        <v>0.1340700152397501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1048582794723125</v>
+        <v>0.1033489324024244</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07516760469807791</v>
+        <v>0.07365493684016473</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1129541653100558</v>
+        <v>0.1118217446281376</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.117769409676977</v>
+        <v>0.1162728076109784</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1262744027638675</v>
+        <v>0.1272234356979433</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07117898115805053</v>
+        <v>0.07289455224694685</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09859626179580906</v>
+        <v>0.0974649954383178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1164843251813792</v>
+        <v>0.1165170918996959</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.111431670289646</v>
+        <v>0.1118775403840136</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1339978196459014</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1085215373068146</v>
+        <v>0.1085215373068145</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07987795610687375</v>
@@ -1377,7 +1377,7 @@
         <v>0.1088455216962432</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.0865535916015321</v>
+        <v>0.08655359160153207</v>
       </c>
     </row>
     <row r="20">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006986359354328353</v>
+        <v>0.007099957867619346</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003559051545721522</v>
+        <v>0.003907189945162777</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.002127702143688217</v>
+        <v>0.002231526879001121</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08350916534117289</v>
+        <v>0.08147455721190985</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1197526790674965</v>
+        <v>0.1201464645835962</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1134563114680222</v>
+        <v>0.1121122752584828</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09277428591393962</v>
+        <v>0.0927725650443199</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06650942346009303</v>
+        <v>0.0675439734171821</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1004629548032779</v>
+        <v>0.09960132575145537</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09178525642131845</v>
+        <v>0.09271507217655371</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07366558539923819</v>
+        <v>0.07477596221305984</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05630730064239844</v>
+        <v>0.04731445914254769</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03222119649302631</v>
+        <v>0.03272747527411063</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02888872020012986</v>
+        <v>0.02622889038794411</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1171094149894236</v>
+        <v>0.1165155555756538</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1607663048101069</v>
+        <v>0.1631830708481776</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1577149317170034</v>
+        <v>0.1574711472093822</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1261216097732173</v>
+        <v>0.1269343221530365</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09318687495132551</v>
+        <v>0.09441895828311657</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1348889110658565</v>
+        <v>0.1355154126344069</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1274706654986524</v>
+        <v>0.1269948336879058</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1013811325804857</v>
+        <v>0.1012278408469499</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.08105451442005666</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.08133684000184642</v>
+        <v>0.08133684000184643</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04846100490015075</v>
+        <v>0.04851622738160224</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06413006879790703</v>
+        <v>0.06420325487224522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07518187734927417</v>
+        <v>0.07399733850705899</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08015248088976264</v>
+        <v>0.07933829632944613</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05298913610883521</v>
+        <v>0.05323764938435966</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07555867948706506</v>
+        <v>0.07613949127604148</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06939713137020734</v>
+        <v>0.07007097661913568</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06797382557568106</v>
+        <v>0.06845695519557948</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05269760440416627</v>
+        <v>0.05339699350687779</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07248737444793078</v>
+        <v>0.07279742939044438</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07478499094306709</v>
+        <v>0.07469618320974793</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0756585496979767</v>
+        <v>0.07599363314943469</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06364866983112974</v>
+        <v>0.06445788515932976</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08253609033750194</v>
+        <v>0.08235263834003917</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09345955741895166</v>
+        <v>0.09417000128287036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09734927319545962</v>
+        <v>0.09691592267132466</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06972192248379963</v>
+        <v>0.06898082298031902</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09343973209122435</v>
+        <v>0.0953348229896924</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08927616042633901</v>
+        <v>0.08921736492960669</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08174839561429977</v>
+        <v>0.08153485137700033</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06419617730466799</v>
+        <v>0.06446759767701547</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08619553637378806</v>
+        <v>0.08623833312909245</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08807016998983065</v>
+        <v>0.08783735723614386</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08670173338393042</v>
+        <v>0.08706051319849233</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15203</v>
+        <v>15330</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11652</v>
+        <v>11255</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20925</v>
+        <v>21220</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32220</v>
+        <v>32351</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1792</v>
+        <v>1773</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6177</v>
+        <v>6240</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6630</v>
+        <v>6254</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10431</v>
+        <v>9990</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18528</v>
+        <v>18690</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21085</v>
+        <v>21172</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30462</v>
+        <v>31808</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>45451</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33019</v>
+        <v>33155</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32021</v>
+        <v>29759</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43907</v>
+        <v>43455</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>54883</v>
+        <v>54663</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10830</v>
+        <v>10986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21256</v>
+        <v>20427</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21260</v>
+        <v>20592</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21973</v>
+        <v>21212</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40417</v>
+        <v>39213</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>44712</v>
+        <v>43240</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>58205</v>
+        <v>57955</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>71608</v>
+        <v>69844</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9840</v>
+        <v>9814</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13920</v>
+        <v>13633</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15759</v>
+        <v>15774</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>32621</v>
+        <v>32193</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2019</v>
+        <v>1168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4168</v>
+        <v>3832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4480</v>
+        <v>4428</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6656</v>
+        <v>6907</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14056</v>
+        <v>14081</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21166</v>
+        <v>21316</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>22356</v>
+        <v>23403</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>42841</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24442</v>
+        <v>25320</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32901</v>
+        <v>32892</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34340</v>
+        <v>34577</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>55844</v>
+        <v>56878</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12581</v>
+        <v>11263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18136</v>
+        <v>17338</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21153</v>
+        <v>19685</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16699</v>
+        <v>16078</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>33290</v>
+        <v>32870</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>45987</v>
+        <v>43995</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>46037</v>
+        <v>45730</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>67201</v>
+        <v>67339</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20074</v>
+        <v>19927</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49584</v>
+        <v>50287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39811</v>
+        <v>40376</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>37154</v>
+        <v>37793</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6987</v>
+        <v>7175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9043</v>
+        <v>8971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5427</v>
+        <v>5795</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12601</v>
+        <v>12620</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30125</v>
+        <v>30547</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>64136</v>
+        <v>65879</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>49440</v>
+        <v>46902</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>55873</v>
+        <v>54471</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40202</v>
+        <v>39059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>84210</v>
+        <v>82887</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67070</v>
+        <v>68274</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63811</v>
+        <v>62333</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21629</v>
+        <v>20278</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25956</v>
+        <v>25476</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20253</v>
+        <v>19713</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25188</v>
+        <v>25069</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54202</v>
+        <v>55341</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>102814</v>
+        <v>101162</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>80284</v>
+        <v>77875</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>81762</v>
+        <v>81166</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>76024</v>
+        <v>74268</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>85898</v>
+        <v>84683</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>88873</v>
+        <v>88187</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>102235</v>
+        <v>104759</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21352</v>
+        <v>20685</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27827</v>
+        <v>29229</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>21456</v>
+        <v>20582</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36052</v>
+        <v>36724</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>103012</v>
+        <v>102735</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>120680</v>
+        <v>121699</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>117131</v>
+        <v>115880</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>146920</v>
+        <v>144891</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>112344</v>
+        <v>110838</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>124672</v>
+        <v>125235</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>127548</v>
+        <v>126920</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>141226</v>
+        <v>141583</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42757</v>
+        <v>42548</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>52227</v>
+        <v>53769</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43331</v>
+        <v>43003</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>55310</v>
+        <v>55169</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>143107</v>
+        <v>144907</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>168331</v>
+        <v>167830</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>161323</v>
+        <v>164542</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>187942</v>
+        <v>188694</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14019</v>
+        <v>14469</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23743</v>
+        <v>23372</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>53321</v>
+        <v>53139</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>34864</v>
+        <v>35359</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19712</v>
+        <v>20198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>52852</v>
+        <v>53108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>53308</v>
+        <v>53299</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>78808</v>
+        <v>78921</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>37538</v>
+        <v>39570</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>85672</v>
+        <v>84139</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>114384</v>
+        <v>111985</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>118872</v>
+        <v>119729</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32533</v>
+        <v>31870</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49507</v>
+        <v>46939</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>83644</v>
+        <v>83218</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>59452</v>
+        <v>58596</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42752</v>
+        <v>41891</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>85767</v>
+        <v>84907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>86943</v>
+        <v>85838</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>104824</v>
+        <v>105612</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>65363</v>
+        <v>66938</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>125207</v>
+        <v>123771</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>158296</v>
+        <v>158341</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>155682</v>
+        <v>156304</v>
       </c>
     </row>
     <row r="24">
@@ -2777,37 +2777,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1857</v>
+        <v>1887</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1022</v>
+        <v>1122</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>104283</v>
+        <v>101742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>132357</v>
+        <v>132793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>122763</v>
+        <v>121308</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>78208</v>
+        <v>78207</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>102887</v>
+        <v>104488</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>137745</v>
+        <v>136563</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>125670</v>
+        <v>126943</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>79575</v>
+        <v>80775</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14969</v>
+        <v>12578</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9252</v>
+        <v>9398</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6853</v>
+        <v>6222</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>146242</v>
+        <v>145500</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>177688</v>
+        <v>180359</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>170651</v>
+        <v>170388</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>106320</v>
+        <v>107005</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>144156</v>
+        <v>146062</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>184946</v>
+        <v>185805</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>174529</v>
+        <v>173878</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>109514</v>
+        <v>109348</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>158427</v>
+        <v>158608</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>219088</v>
+        <v>219338</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>254545</v>
+        <v>250534</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>275844</v>
+        <v>273042</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>179004</v>
+        <v>179843</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>267397</v>
+        <v>269452</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>245083</v>
+        <v>247462</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>246934</v>
+        <v>248689</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>350297</v>
+        <v>354946</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>504167</v>
+        <v>506323</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>517312</v>
+        <v>516697</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>535229</v>
+        <v>537600</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>208078</v>
+        <v>210724</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>281969</v>
+        <v>281342</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>316428</v>
+        <v>318833</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>335026</v>
+        <v>333535</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>235529</v>
+        <v>233026</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>330676</v>
+        <v>337383</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>315287</v>
+        <v>315080</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>296974</v>
+        <v>296199</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>426731</v>
+        <v>428535</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>599510</v>
+        <v>599808</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>609209</v>
+        <v>607599</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>613352</v>
+        <v>615890</v>
       </c>
     </row>
     <row r="32">
